--- a/xlsx/主权_intext.xlsx
+++ b/xlsx/主权_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="245">
   <si>
     <t>主权</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>政策_政策_政治_主权</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%A8%81</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%B3%95</t>
@@ -83,9 +83,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
-    <t>国家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E5%AE%98</t>
   </si>
   <si>
@@ -95,7 +92,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際組織</t>
+    <t>国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9B%BD%E5%85%AC%E5%8F%B8</t>
@@ -119,7 +116,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -137,13 +134,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>人民主權</t>
+    <t>人民主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%94%BF%E5%88%B6</t>
   </si>
   <si>
-    <t>代議政制</t>
+    <t>代议政制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%8A%95%E7%A5%A8</t>
@@ -155,19 +152,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>君主專制</t>
+    <t>君主专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
+    <t>神权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%96%86%E5%9F%9F</t>
@@ -179,13 +176,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E6%B2%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>統治權</t>
+    <t>统治权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E5%AE%98</t>
   </si>
   <si>
-    <t>執政官</t>
+    <t>执政官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E4%B8%B9</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>社會契約</t>
+    <t>社会契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E9%9B%85%E5%85%8B%C2%B7%E5%8D%A2%E6%A2%AD</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>獨立宣言</t>
+    <t>独立宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E9%9B%AA</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
+    <t>法国大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83%E5%92%8C%E5%85%AC%E6%B0%91%E6%9D%83%E5%AE%A3%E8%A8%80</t>
@@ -293,25 +290,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E9%82%A6%E8%81%AF</t>
   </si>
   <si>
-    <t>德意志邦聯</t>
+    <t>德意志邦联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國家主義</t>
+    <t>国家主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%BF%83%E9%83%A8%E9%81%94%E5%90%89</t>
   </si>
   <si>
-    <t>美濃部達吉</t>
+    <t>美浓部达吉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
+    <t>军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E8%BF%AB%E5%AE%B3</t>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E7%81%B5%E8%AE%BA</t>
@@ -335,31 +332,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府主義</t>
+    <t>无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>德意志帝國</t>
+    <t>德意志帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
@@ -371,19 +368,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>建構主義</t>
+    <t>建构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>三十年戰爭</t>
+    <t>三十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E7%89%B9%E4%BC%90%E5%88%A9%E4%BA%9E%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>威斯特伐利亞和約</t>
+    <t>威斯特伐利亚和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B3%95</t>
@@ -437,43 +434,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>台灣地區</t>
+    <t>台湾地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦制</t>
+    <t>联邦制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E8%81%AF%E7%9B%9F%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅聯盟國</t>
+    <t>美利坚联盟国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7C%C2%B7%E5%8D%A1%E5%B0%94%E9%9C%8D%E6%81%A9</t>
@@ -485,9 +482,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>南北战争</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Fugitive_slave_laws</t>
   </si>
   <si>
@@ -509,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E9%9F%8B%E4%BC%AF%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>丹尼爾·韋伯斯特</t>
+    <t>丹尼尔·韦伯斯特</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Joseph_Story</t>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>主權國家</t>
+    <t>主权国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
@@ -569,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>獨立</t>
+    <t>独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E6%B1%BA</t>
   </si>
   <si>
-    <t>民族自決</t>
+    <t>民族自决</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E7%BD%97%C2%B7%E5%A8%81%E5%B0%94%E9%80%8A</t>
@@ -587,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%9B%9B%E9%BB%9E%E5%92%8C%E5%B9%B3%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>十四點和平原則</t>
+    <t>十四点和平原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E5%88%A9%E4%BA%BA</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%95%99%E5%BB%B7</t>
   </si>
   <si>
-    <t>羅馬教廷</t>
+    <t>罗马教廷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88%E5%9F%8E%E5%9B%BD</t>
@@ -611,19 +605,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%A3%9B%E5%9C%B0</t>
   </si>
   <si>
-    <t>內飛地</t>
+    <t>内飞地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E9%99%A2%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
@@ -635,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AF%A6%E9%AB%94</t>
   </si>
   <si>
-    <t>政治實體</t>
+    <t>政治实体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
@@ -653,31 +647,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>微型國家</t>
+    <t>微型国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E7%AE%A1%E9%A0%98</t>
   </si>
   <si>
-    <t>共同管領</t>
+    <t>共同管领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE</t>
   </si>
   <si>
-    <t>安道爾</t>
+    <t>安道尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>公國</t>
+    <t>公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%B8%BB%E9%82%A6%E8%81%94</t>
@@ -707,15 +701,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E6%89%80%E6%9C%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>自我所有權</t>
+    <t>自我所有权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84%E8%AB%96</t>
   </si>
   <si>
-    <t>社會契約論</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E4%B8%BB%E6%9D%83</t>
   </si>
   <si>
@@ -725,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -743,13 +734,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
@@ -1419,7 +1410,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>7</v>
@@ -1445,10 +1436,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1474,10 +1465,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1503,10 +1494,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1532,10 +1523,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1561,10 +1552,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>12</v>
@@ -1590,10 +1581,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1619,10 +1610,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>13</v>
@@ -1648,10 +1639,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>19</v>
@@ -1677,10 +1668,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -1706,10 +1697,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1735,10 +1726,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1764,10 +1755,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>5</v>
@@ -1793,10 +1784,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1822,10 +1813,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1851,10 +1842,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1880,10 +1871,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -1909,10 +1900,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1938,10 +1929,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1967,10 +1958,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1996,10 +1987,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
         <v>45</v>
-      </c>
-      <c r="F31" t="s">
-        <v>46</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
@@ -2025,10 +2016,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2054,10 +2045,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2083,10 +2074,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2112,10 +2103,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2141,10 +2132,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2170,10 +2161,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2199,10 +2190,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2228,10 +2219,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2257,10 +2248,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2286,10 +2277,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2315,10 +2306,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2344,10 +2335,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2373,10 +2364,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2402,10 +2393,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2431,10 +2422,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2460,10 +2451,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2489,10 +2480,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2518,10 +2509,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2547,10 +2538,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2576,10 +2567,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2605,10 +2596,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2634,10 +2625,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2663,10 +2654,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -2692,10 +2683,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2721,10 +2712,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
@@ -2750,10 +2741,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2779,10 +2770,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2808,10 +2799,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>6</v>
@@ -2837,10 +2828,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2866,10 +2857,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2895,10 +2886,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2924,10 +2915,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2953,10 +2944,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2982,10 +2973,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3011,10 +3002,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3040,10 +3031,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3069,10 +3060,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3098,10 +3089,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3127,10 +3118,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3156,10 +3147,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3185,10 +3176,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -3214,10 +3205,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3243,10 +3234,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3272,10 +3263,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3301,10 +3292,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3330,10 +3321,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3359,10 +3350,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3388,10 +3379,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3417,10 +3408,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3446,10 +3437,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3475,10 +3466,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3504,10 +3495,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3533,10 +3524,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3562,10 +3553,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3591,10 +3582,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3620,10 +3611,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3649,10 +3640,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3678,10 +3669,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3707,10 +3698,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -3736,10 +3727,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3765,10 +3756,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3794,10 +3785,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>5</v>
@@ -3823,10 +3814,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -3852,10 +3843,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3881,10 +3872,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3910,10 +3901,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3939,10 +3930,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3968,10 +3959,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3997,10 +3988,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4026,10 +4017,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4055,10 +4046,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4084,10 +4075,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4113,10 +4104,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4142,10 +4133,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4171,10 +4162,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4200,10 +4191,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4229,10 +4220,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4258,10 +4249,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4287,10 +4278,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4316,10 +4307,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4345,10 +4336,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4374,10 +4365,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4403,10 +4394,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4432,10 +4423,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4461,10 +4452,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4490,10 +4481,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4519,10 +4510,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4548,10 +4539,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -4577,10 +4568,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4606,10 +4597,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4635,10 +4626,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4664,10 +4655,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4693,10 +4684,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>5</v>
@@ -4722,10 +4713,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>

--- a/xlsx/主权_intext.xlsx
+++ b/xlsx/主权_intext.xlsx
@@ -29,7 +29,7 @@
     <t>國家</t>
   </si>
   <si>
-    <t>政策_政策_政治_主权</t>
+    <t>体育运动_体育运动_明成祖_主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
